--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220502_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220502_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="262">
   <si>
     <t>날짜</t>
   </si>
@@ -758,6 +758,9 @@
   </si>
   <si>
     <t>YUE HUA</t>
+  </si>
+  <si>
+    <t>디컴퍼니</t>
   </si>
   <si>
     <t>에버그로우</t>
@@ -1203,7 +1206,7 @@
         <v>224</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1226,7 +1229,7 @@
         <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1249,7 +1252,7 @@
         <v>224</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1318,7 +1321,7 @@
         <v>227</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1341,7 +1344,7 @@
         <v>224</v>
       </c>
       <c r="G8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1364,7 +1367,7 @@
         <v>224</v>
       </c>
       <c r="G9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1387,7 +1390,7 @@
         <v>228</v>
       </c>
       <c r="G10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1433,7 +1436,7 @@
         <v>224</v>
       </c>
       <c r="G12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1456,7 +1459,7 @@
         <v>230</v>
       </c>
       <c r="G13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1479,7 +1482,7 @@
         <v>231</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1502,7 +1505,7 @@
         <v>232</v>
       </c>
       <c r="G15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1525,7 +1528,7 @@
         <v>233</v>
       </c>
       <c r="G16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1548,7 +1551,7 @@
         <v>234</v>
       </c>
       <c r="G17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1571,7 +1574,7 @@
         <v>235</v>
       </c>
       <c r="G18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1594,7 +1597,7 @@
         <v>236</v>
       </c>
       <c r="G19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1640,7 +1643,7 @@
         <v>227</v>
       </c>
       <c r="G21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1663,7 +1666,7 @@
         <v>224</v>
       </c>
       <c r="G22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1686,7 +1689,7 @@
         <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1709,7 +1712,7 @@
         <v>228</v>
       </c>
       <c r="G24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1755,7 +1758,7 @@
         <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1778,7 +1781,7 @@
         <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1801,7 +1804,7 @@
         <v>240</v>
       </c>
       <c r="G28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1824,7 +1827,7 @@
         <v>234</v>
       </c>
       <c r="G29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1847,7 +1850,7 @@
         <v>241</v>
       </c>
       <c r="G30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1870,7 +1873,7 @@
         <v>224</v>
       </c>
       <c r="G31" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1916,7 +1919,7 @@
         <v>230</v>
       </c>
       <c r="G33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1939,7 +1942,7 @@
         <v>224</v>
       </c>
       <c r="G34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1981,6 +1984,12 @@
       <c r="E36" t="s">
         <v>187</v>
       </c>
+      <c r="F36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
@@ -2002,7 +2011,7 @@
         <v>233</v>
       </c>
       <c r="G37" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2025,7 +2034,7 @@
         <v>224</v>
       </c>
       <c r="G38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2048,7 +2057,7 @@
         <v>224</v>
       </c>
       <c r="G39" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2071,7 +2080,7 @@
         <v>233</v>
       </c>
       <c r="G40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2094,7 +2103,7 @@
         <v>242</v>
       </c>
       <c r="G41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2117,7 +2126,7 @@
         <v>235</v>
       </c>
       <c r="G42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2140,7 +2149,7 @@
         <v>243</v>
       </c>
       <c r="G43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2163,7 +2172,7 @@
         <v>244</v>
       </c>
       <c r="G44" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2186,7 +2195,7 @@
         <v>224</v>
       </c>
       <c r="G45" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2232,7 +2241,7 @@
         <v>246</v>
       </c>
       <c r="G47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2255,7 +2264,7 @@
         <v>233</v>
       </c>
       <c r="G48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2278,7 +2287,7 @@
         <v>247</v>
       </c>
       <c r="G49" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2301,7 +2310,7 @@
         <v>239</v>
       </c>
       <c r="G50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2343,6 +2352,12 @@
       <c r="E52" t="s">
         <v>197</v>
       </c>
+      <c r="F52" t="s">
+        <v>248</v>
+      </c>
+      <c r="G52" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
@@ -2364,7 +2379,7 @@
         <v>233</v>
       </c>
       <c r="G53" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2387,7 +2402,7 @@
         <v>224</v>
       </c>
       <c r="G54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2433,7 +2448,7 @@
         <v>239</v>
       </c>
       <c r="G56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2479,7 +2494,7 @@
         <v>233</v>
       </c>
       <c r="G58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2499,10 +2514,10 @@
         <v>200</v>
       </c>
       <c r="F59" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G59" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2525,7 +2540,7 @@
         <v>233</v>
       </c>
       <c r="G60" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2571,7 +2586,7 @@
         <v>233</v>
       </c>
       <c r="G62" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2594,7 +2609,7 @@
         <v>244</v>
       </c>
       <c r="G63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2637,10 +2652,10 @@
         <v>202</v>
       </c>
       <c r="F65" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G65" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2683,10 +2698,10 @@
         <v>203</v>
       </c>
       <c r="F67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2709,7 +2724,7 @@
         <v>239</v>
       </c>
       <c r="G68" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2755,7 +2770,7 @@
         <v>244</v>
       </c>
       <c r="G70" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2775,10 +2790,10 @@
         <v>77</v>
       </c>
       <c r="F71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2821,10 +2836,10 @@
         <v>208</v>
       </c>
       <c r="F73" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G73" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2844,10 +2859,10 @@
         <v>80</v>
       </c>
       <c r="F74" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G74" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2866,6 +2881,12 @@
       <c r="E75" t="s">
         <v>81</v>
       </c>
+      <c r="F75" t="s">
+        <v>233</v>
+      </c>
+      <c r="G75" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
@@ -2910,7 +2931,7 @@
         <v>236</v>
       </c>
       <c r="G77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2933,7 +2954,7 @@
         <v>233</v>
       </c>
       <c r="G78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2952,6 +2973,12 @@
       <c r="E79" t="s">
         <v>210</v>
       </c>
+      <c r="F79" t="s">
+        <v>233</v>
+      </c>
+      <c r="G79" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
@@ -2969,6 +2996,12 @@
       <c r="E80" t="s">
         <v>86</v>
       </c>
+      <c r="F80" t="s">
+        <v>233</v>
+      </c>
+      <c r="G80" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
@@ -2987,10 +3020,10 @@
         <v>211</v>
       </c>
       <c r="F81" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G81" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3010,10 +3043,10 @@
         <v>88</v>
       </c>
       <c r="F82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G82" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3125,10 +3158,10 @@
         <v>215</v>
       </c>
       <c r="F87" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3148,10 +3181,10 @@
         <v>94</v>
       </c>
       <c r="F88" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G88" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3174,7 +3207,7 @@
         <v>236</v>
       </c>
       <c r="G89" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3197,7 +3230,7 @@
         <v>230</v>
       </c>
       <c r="G90" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3217,10 +3250,10 @@
         <v>218</v>
       </c>
       <c r="F91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G91" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3239,6 +3272,12 @@
       <c r="E92" t="s">
         <v>98</v>
       </c>
+      <c r="F92" t="s">
+        <v>233</v>
+      </c>
+      <c r="G92" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
@@ -3260,7 +3299,7 @@
         <v>244</v>
       </c>
       <c r="G93" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3303,10 +3342,10 @@
         <v>220</v>
       </c>
       <c r="F95" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G95" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3329,7 +3368,7 @@
         <v>233</v>
       </c>
       <c r="G96" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3348,6 +3387,12 @@
       <c r="E97" t="s">
         <v>103</v>
       </c>
+      <c r="F97" t="s">
+        <v>233</v>
+      </c>
+      <c r="G97" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
@@ -3369,7 +3414,7 @@
         <v>233</v>
       </c>
       <c r="G98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3392,7 +3437,7 @@
         <v>233</v>
       </c>
       <c r="G99" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3412,10 +3457,10 @@
         <v>222</v>
       </c>
       <c r="F100" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G100" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3438,7 +3483,7 @@
         <v>244</v>
       </c>
       <c r="G101" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220502_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220502_110800.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>bugs</t>
+    <t>Bugs</t>
   </si>
   <si>
     <t>2022-05-02</t>

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220502_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220502_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="263">
   <si>
     <t>사이트</t>
   </si>
@@ -739,7 +739,7 @@
     <t>빅히트</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>WM</t>
@@ -803,9 +803,6 @@
   </si>
   <si>
     <t>MH</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1215,7 @@
         <v>226</v>
       </c>
       <c r="H2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1244,7 +1241,7 @@
         <v>226</v>
       </c>
       <c r="H3" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1270,7 +1267,7 @@
         <v>226</v>
       </c>
       <c r="H4" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1348,7 +1345,7 @@
         <v>229</v>
       </c>
       <c r="H7" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1374,7 +1371,7 @@
         <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1400,7 +1397,7 @@
         <v>226</v>
       </c>
       <c r="H9" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1426,7 +1423,7 @@
         <v>230</v>
       </c>
       <c r="H10" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1478,7 +1475,7 @@
         <v>226</v>
       </c>
       <c r="H12" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1504,7 +1501,7 @@
         <v>232</v>
       </c>
       <c r="H13" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1530,7 +1527,7 @@
         <v>233</v>
       </c>
       <c r="H14" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1556,7 +1553,7 @@
         <v>234</v>
       </c>
       <c r="H15" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1582,7 +1579,7 @@
         <v>235</v>
       </c>
       <c r="H16" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1608,7 +1605,7 @@
         <v>236</v>
       </c>
       <c r="H17" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1634,7 +1631,7 @@
         <v>237</v>
       </c>
       <c r="H18" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1660,7 +1657,7 @@
         <v>238</v>
       </c>
       <c r="H19" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1712,7 +1709,7 @@
         <v>229</v>
       </c>
       <c r="H21" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1738,7 +1735,7 @@
         <v>226</v>
       </c>
       <c r="H22" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1764,7 +1761,7 @@
         <v>229</v>
       </c>
       <c r="H23" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1790,7 +1787,7 @@
         <v>230</v>
       </c>
       <c r="H24" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1842,7 +1839,7 @@
         <v>241</v>
       </c>
       <c r="H26" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1868,7 +1865,7 @@
         <v>226</v>
       </c>
       <c r="H27" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1894,7 +1891,7 @@
         <v>242</v>
       </c>
       <c r="H28" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1920,7 +1917,7 @@
         <v>236</v>
       </c>
       <c r="H29" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1946,7 +1943,7 @@
         <v>243</v>
       </c>
       <c r="H30" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1972,7 +1969,7 @@
         <v>226</v>
       </c>
       <c r="H31" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2024,7 +2021,7 @@
         <v>232</v>
       </c>
       <c r="H33" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2050,7 +2047,7 @@
         <v>226</v>
       </c>
       <c r="H34" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2128,7 +2125,7 @@
         <v>235</v>
       </c>
       <c r="H37" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2154,7 +2151,7 @@
         <v>226</v>
       </c>
       <c r="H38" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2180,7 +2177,7 @@
         <v>226</v>
       </c>
       <c r="H39" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2206,7 +2203,7 @@
         <v>235</v>
       </c>
       <c r="H40" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2232,7 +2229,7 @@
         <v>244</v>
       </c>
       <c r="H41" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2258,7 +2255,7 @@
         <v>237</v>
       </c>
       <c r="H42" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2284,7 +2281,7 @@
         <v>245</v>
       </c>
       <c r="H43" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2310,7 +2307,7 @@
         <v>246</v>
       </c>
       <c r="H44" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2336,7 +2333,7 @@
         <v>226</v>
       </c>
       <c r="H45" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2388,7 +2385,7 @@
         <v>248</v>
       </c>
       <c r="H47" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2414,7 +2411,7 @@
         <v>235</v>
       </c>
       <c r="H48" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2440,7 +2437,7 @@
         <v>249</v>
       </c>
       <c r="H49" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2466,7 +2463,7 @@
         <v>241</v>
       </c>
       <c r="H50" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2518,7 +2515,7 @@
         <v>250</v>
       </c>
       <c r="H52" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2544,7 +2541,7 @@
         <v>235</v>
       </c>
       <c r="H53" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2570,7 +2567,7 @@
         <v>226</v>
       </c>
       <c r="H54" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2622,7 +2619,7 @@
         <v>241</v>
       </c>
       <c r="H56" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2674,7 +2671,7 @@
         <v>235</v>
       </c>
       <c r="H58" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2700,7 +2697,7 @@
         <v>251</v>
       </c>
       <c r="H59" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2726,7 +2723,7 @@
         <v>235</v>
       </c>
       <c r="H60" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2778,7 +2775,7 @@
         <v>235</v>
       </c>
       <c r="H62" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2804,7 +2801,7 @@
         <v>246</v>
       </c>
       <c r="H63" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2856,7 +2853,7 @@
         <v>252</v>
       </c>
       <c r="H65" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2934,7 +2931,7 @@
         <v>241</v>
       </c>
       <c r="H68" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2986,7 +2983,7 @@
         <v>246</v>
       </c>
       <c r="H70" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3012,7 +3009,7 @@
         <v>254</v>
       </c>
       <c r="H71" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3064,7 +3061,7 @@
         <v>255</v>
       </c>
       <c r="H73" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3090,7 +3087,7 @@
         <v>256</v>
       </c>
       <c r="H74" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3116,7 +3113,7 @@
         <v>235</v>
       </c>
       <c r="H75" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3168,7 +3165,7 @@
         <v>238</v>
       </c>
       <c r="H77" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3194,7 +3191,7 @@
         <v>235</v>
       </c>
       <c r="H78" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3220,7 +3217,7 @@
         <v>235</v>
       </c>
       <c r="H79" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3246,7 +3243,7 @@
         <v>235</v>
       </c>
       <c r="H80" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3272,7 +3269,7 @@
         <v>257</v>
       </c>
       <c r="H81" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3298,7 +3295,7 @@
         <v>258</v>
       </c>
       <c r="H82" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3428,7 +3425,7 @@
         <v>256</v>
       </c>
       <c r="H87" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3454,7 +3451,7 @@
         <v>259</v>
       </c>
       <c r="H88" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3480,7 +3477,7 @@
         <v>238</v>
       </c>
       <c r="H89" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3506,7 +3503,7 @@
         <v>232</v>
       </c>
       <c r="H90" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3532,7 +3529,7 @@
         <v>260</v>
       </c>
       <c r="H91" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3558,7 +3555,7 @@
         <v>235</v>
       </c>
       <c r="H92" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3584,7 +3581,7 @@
         <v>246</v>
       </c>
       <c r="H93" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3636,7 +3633,7 @@
         <v>261</v>
       </c>
       <c r="H95" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3662,7 +3659,7 @@
         <v>235</v>
       </c>
       <c r="H96" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3688,7 +3685,7 @@
         <v>235</v>
       </c>
       <c r="H97" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3714,7 +3711,7 @@
         <v>235</v>
       </c>
       <c r="H98" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3740,7 +3737,7 @@
         <v>235</v>
       </c>
       <c r="H99" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3766,7 +3763,7 @@
         <v>262</v>
       </c>
       <c r="H100" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3792,7 +3789,7 @@
         <v>246</v>
       </c>
       <c r="H101" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
